--- a/archive/mls_tf15.xlsx
+++ b/archive/mls_tf15.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Fall Tournament" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Copy of Fall Tournament" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -283,8 +283,12 @@
 </f>
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H2" s="3" t="str">
         <f>1</f>
         <v>1</v>
@@ -297,8 +301,12 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="5" t="str">
         <f t="shared" ref="N2:N13" si="1">IF(C2,E2/C2,)</f>
@@ -338,16 +346,28 @@
         <f>2+2+1</f>
         <v>5</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.0</v>
+      </c>
       <c r="J3" s="3" t="str">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="5" t="str">
         <f t="shared" si="1"/>
@@ -391,7 +411,9 @@
         <f t="shared" ref="F4:F5" si="6">1</f>
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H4" s="3" t="str">
         <f>1</f>
         <v>1</v>
@@ -401,9 +423,15 @@
 </f>
         <v>5</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -435,7 +463,9 @@
         <f>4+3+3</f>
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E5" s="3" t="str">
         <f>1+1+2</f>
         <v>4</v>
@@ -444,13 +474,19 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ref="I5:I6" si="9">1+1</f>
         <v>2</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="K5" s="3" t="str">
         <f t="shared" ref="K5:L5" si="7">1</f>
         <v>1</v>
@@ -489,22 +525,36 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E6" s="3" t="str">
         <f>2+2
 </f>
         <v>4</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -543,13 +593,27 @@
         <f>1+2</f>
         <v>3</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="F7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -589,13 +653,27 @@
 </f>
         <v>6</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="F8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -634,16 +712,28 @@
         <f>2+3+1</f>
         <v>6</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G10" si="14">1</f>
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="H9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -682,18 +772,26 @@
         <f>1+1+2</f>
         <v>4</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I10" s="3" t="str">
         <f>3+1</f>
         <v>4</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="J10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="L10" s="3" t="str">
         <f>2</f>
         <v>2</v>
@@ -736,19 +834,29 @@
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I11" s="3" t="str">
         <f t="shared" ref="I11:I12" si="17">1</f>
         <v>1</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>0.0</v>
+      </c>
       <c r="K11" s="3" t="str">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -779,21 +887,35 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E12" s="3" t="str">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="J12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.0</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5" t="str">
         <f t="shared" si="1"/>

--- a/archive/mls_tf15.xlsx
+++ b/archive/mls_tf15.xlsx
@@ -55,10 +55,10 @@
     <t>AVG</t>
   </si>
   <si>
+    <t>OBP</t>
+  </si>
+  <si>
     <t>SLG</t>
-  </si>
-  <si>
-    <t>OBP</t>
   </si>
   <si>
     <t>OPS</t>
@@ -530,10 +530,10 @@
         <v>0.7</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0.727</v>
       </c>
       <c r="P2" s="1">
-        <v>0.727</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
         <v>1.727</v>
@@ -580,10 +580,10 @@
         <v>0.625</v>
       </c>
       <c r="O3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P3" s="1">
         <v>0.625</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.7</v>
       </c>
       <c r="Q3" s="1">
         <v>1.325</v>
@@ -630,10 +630,10 @@
         <v>0.778</v>
       </c>
       <c r="O4" s="1">
+        <v>0.778</v>
+      </c>
+      <c r="P4" s="1">
         <v>1.222</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.778</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
@@ -680,10 +680,10 @@
         <v>0.4</v>
       </c>
       <c r="O5" s="1">
+        <v>0.364</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.5</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.364</v>
       </c>
       <c r="Q5" s="1">
         <v>0.864</v>
@@ -880,10 +880,10 @@
         <v>0.6</v>
       </c>
       <c r="O9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P9" s="1">
         <v>0.8</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.6</v>
       </c>
       <c r="Q9" s="1">
         <v>1.4</v>
@@ -930,10 +930,10 @@
         <v>0.571</v>
       </c>
       <c r="O10" s="1">
+        <v>0.444</v>
+      </c>
+      <c r="P10" s="1">
         <v>0.857</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.444</v>
       </c>
       <c r="Q10" s="1">
         <v>1.302</v>
@@ -1080,10 +1080,10 @@
         <v>0.533</v>
       </c>
       <c r="O13" s="1">
+        <v>0.531</v>
+      </c>
+      <c r="P13" s="1">
         <v>0.663</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.531</v>
       </c>
       <c r="Q13" s="1">
         <v>1.194</v>
